--- a/data/Unicrypt/Unicrypt20200101.xlsx
+++ b/data/Unicrypt/Unicrypt20200101.xlsx
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1114,7 +1114,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50">
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51">
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106">
@@ -2356,7 +2356,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108">
@@ -3040,7 +3040,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="146">
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -3688,7 +3688,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
